--- a/data/Sampling sites 2020.xlsx
+++ b/data/Sampling sites 2020.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bmeyer/Google Drive/KWF/KWF R Projects/KWF_metals_2020/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bmeyer\Documents\KWF_Metals_2020\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CAA184-B982-0146-9CCD-2D24EA43B6C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" activeTab="1" xr2:uid="{C3ACD11D-CE5E-4005-B228-848CF7A7FB89}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14424" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="BM_format_Sites2020" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,8 +31,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Benjamin Meyer</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Benjamin Meyer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+alternative name format
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="107">
   <si>
     <t>Access</t>
   </si>
@@ -232,15 +267,9 @@
     <t>Other_Notes</t>
   </si>
   <si>
-    <t>Is site upstream of downstream of bridge?</t>
-  </si>
-  <si>
     <t>Pillars</t>
   </si>
   <si>
-    <t>RM</t>
-  </si>
-  <si>
     <t>Jims_Landing</t>
   </si>
   <si>
@@ -250,21 +279,6 @@
     <t>Slikok_Creek_Kenai_River_Confluence</t>
   </si>
   <si>
-    <t>Soldotna_Creek</t>
-  </si>
-  <si>
-    <t>Slikok_Creek</t>
-  </si>
-  <si>
-    <t>Beaver_Creek</t>
-  </si>
-  <si>
-    <t>No_Name_Creek</t>
-  </si>
-  <si>
-    <t>Funny_River</t>
-  </si>
-  <si>
     <t>City_of_Kenai_Docks</t>
   </si>
   <si>
@@ -281,13 +295,106 @@
   </si>
   <si>
     <t>Swiftwater_Park</t>
+  </si>
+  <si>
+    <t>Upper_Beaver_Creek</t>
+  </si>
+  <si>
+    <t>Lower No Name Creek</t>
+  </si>
+  <si>
+    <t>Upper No Name Creek</t>
+  </si>
+  <si>
+    <t>Lower Beaver Creek</t>
+  </si>
+  <si>
+    <t>Upper Beaver Creek</t>
+  </si>
+  <si>
+    <t>Lower Slikok Creek</t>
+  </si>
+  <si>
+    <t>Upper Slikok Creek</t>
+  </si>
+  <si>
+    <t>Lower Soldotna Creek</t>
+  </si>
+  <si>
+    <t>Upper Soldotna Creek</t>
+  </si>
+  <si>
+    <t>Lower Funny River</t>
+  </si>
+  <si>
+    <t>City of Kenai Docks</t>
+  </si>
+  <si>
+    <t>Cunningham Park</t>
+  </si>
+  <si>
+    <t>Upstream of Beaver Creek</t>
+  </si>
+  <si>
+    <t>Poachers Cove</t>
+  </si>
+  <si>
+    <t>Soldotna Bridge</t>
+  </si>
+  <si>
+    <t>Swiftwater Park</t>
+  </si>
+  <si>
+    <t>Upper_Soldotna_Creek</t>
+  </si>
+  <si>
+    <t>Lower_Soldotna_Creek</t>
+  </si>
+  <si>
+    <t>Upper_No_Name_Creek</t>
+  </si>
+  <si>
+    <t>Lower_No_Name_Creek</t>
+  </si>
+  <si>
+    <t>Lower_Beaver_Creek</t>
+  </si>
+  <si>
+    <t>Upper_Slikok_Creek</t>
+  </si>
+  <si>
+    <t>Lower_Slikok_Creek</t>
+  </si>
+  <si>
+    <t>Lower_Funny_River</t>
+  </si>
+  <si>
+    <t>Coordinates from Guerron Orejuela 2015 KWF report</t>
+  </si>
+  <si>
+    <t>Slikok Creek Kenai River Confluence</t>
+  </si>
+  <si>
+    <t>Site_1</t>
+  </si>
+  <si>
+    <t>Poacher's Cove</t>
+  </si>
+  <si>
+    <t>Site ID</t>
+  </si>
+  <si>
+    <t>Site Name</t>
+  </si>
+  <si>
+    <t>Slikok Confluence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,20 +433,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
@@ -349,21 +442,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Lucida Grande"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Lucia grande"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -393,7 +491,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -652,6 +750,49 @@
       </top>
       <bottom style="thick">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,7 +804,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -792,32 +933,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -826,14 +954,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -851,6 +971,39 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1169,40 +1322,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECFD9182-E32F-41D8-B339-193C9B8A78CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="15" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="41" customWidth="1"/>
     <col min="10" max="10" width="56.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.83203125" customWidth="1"/>
+    <col min="11" max="11" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15.6" thickTop="1" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="64" t="s">
+      <c r="F1" s="54"/>
+      <c r="G1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="65"/>
+      <c r="H1" s="54"/>
       <c r="I1" s="3"/>
       <c r="J1" s="11"/>
       <c r="K1" s="4"/>
@@ -1212,7 +1365,7 @@
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
     </row>
-    <row r="2" spans="1:16" s="8" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="8" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>2</v>
@@ -1248,8 +1401,8 @@
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
     </row>
-    <row r="3" spans="1:16" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="66" t="s">
+    <row r="3" spans="1:16" ht="15" thickTop="1">
+      <c r="A3" s="55" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="42" t="s">
@@ -1276,8 +1429,8 @@
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
     </row>
-    <row r="4" spans="1:16" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="67"/>
+    <row r="4" spans="1:16" ht="28.8">
+      <c r="A4" s="56"/>
       <c r="B4" s="43" t="s">
         <v>15</v>
       </c>
@@ -1304,8 +1457,8 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:16" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+    <row r="5" spans="1:16" ht="43.8" thickBot="1">
+      <c r="A5" s="56"/>
       <c r="B5" s="41" t="s">
         <v>18</v>
       </c>
@@ -1338,8 +1491,8 @@
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="1:16" ht="33" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="66" t="s">
+    <row r="6" spans="1:16" ht="43.8" thickTop="1">
+      <c r="A6" s="55" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="38" t="s">
@@ -1374,8 +1527,8 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:16" ht="64" x14ac:dyDescent="0.2">
-      <c r="A7" s="67"/>
+    <row r="7" spans="1:16" ht="72">
+      <c r="A7" s="56"/>
       <c r="B7" s="39" t="s">
         <v>30</v>
       </c>
@@ -1410,8 +1563,8 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:16" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="67"/>
+    <row r="8" spans="1:16" ht="28.8">
+      <c r="A8" s="56"/>
       <c r="B8" s="40" t="s">
         <v>35</v>
       </c>
@@ -1419,10 +1572,10 @@
         <v>49</v>
       </c>
       <c r="D8" s="36"/>
-      <c r="E8" s="68" t="s">
+      <c r="E8" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="68"/>
+      <c r="F8" s="57"/>
       <c r="G8" s="35" t="s">
         <v>37</v>
       </c>
@@ -1444,8 +1597,8 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="1:16" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="69"/>
+    <row r="9" spans="1:16" ht="29.4" thickBot="1">
+      <c r="A9" s="58"/>
       <c r="B9" s="41" t="s">
         <v>40</v>
       </c>
@@ -1480,7 +1633,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:16" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="15" thickTop="1">
       <c r="A10" s="9"/>
       <c r="B10" s="10"/>
       <c r="C10" s="4"/>
@@ -1498,7 +1651,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16">
       <c r="J13" s="12"/>
     </row>
   </sheetData>
@@ -1514,372 +1667,628 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B595D81C-59D0-3D49-A371-E25217B85539}">
-  <dimension ref="A1:I18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17" style="52" customWidth="1"/>
+    <col min="2" max="3" width="23.77734375" style="44" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="44" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" style="44" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" style="52" customWidth="1"/>
+    <col min="7" max="16384" width="10.77734375" style="44"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="47" customFormat="1" ht="18">
+      <c r="A1" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.4" customHeight="1">
+      <c r="A2" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="59">
+        <v>60.550888</v>
+      </c>
+      <c r="E2" s="59">
+        <v>-151.268417</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="63">
+        <v>60.577846000000001</v>
+      </c>
+      <c r="E3" s="63">
+        <v>-151.26858799999999</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="49" customFormat="1" ht="15.6">
+      <c r="A4" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="63">
+        <v>60.483364000000002</v>
+      </c>
+      <c r="E4" s="63">
+        <v>-151.05765600000001</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="48"/>
+    </row>
+    <row r="5" spans="1:7" s="49" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A5" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="64">
+        <v>60.550828000000003</v>
+      </c>
+      <c r="E5" s="64">
+        <v>-150.958325</v>
+      </c>
+      <c r="F5" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="48"/>
+    </row>
+    <row r="6" spans="1:7" s="49" customFormat="1" ht="15.6">
+      <c r="A6" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="60">
+        <v>60.548029</v>
+      </c>
+      <c r="E6" s="63">
+        <v>-151.14323999999999</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="48"/>
+    </row>
+    <row r="7" spans="1:7" s="49" customFormat="1" ht="15.6">
+      <c r="A7" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="64">
+        <v>60.641201000000002</v>
+      </c>
+      <c r="E7" s="64">
+        <v>-151.08471800000001</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="48"/>
+    </row>
+    <row r="8" spans="1:7" s="49" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A8" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="64">
+        <v>60.482317999999999</v>
+      </c>
+      <c r="E8" s="64">
+        <v>-151.12705299999999</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="48"/>
+    </row>
+    <row r="9" spans="1:7" s="49" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A9" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="63">
+        <v>60.402664000000001</v>
+      </c>
+      <c r="E9" s="63">
+        <v>-151.14738500000001</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="48"/>
+    </row>
+    <row r="10" spans="1:7" s="49" customFormat="1" ht="15.6">
+      <c r="A10" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="60">
+        <v>60.489963000000003</v>
+      </c>
+      <c r="E10" s="59">
+        <v>-150.86098200000001</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="49" customFormat="1" ht="15.6">
+      <c r="A11" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="59">
+        <v>60.543680000000002</v>
+      </c>
+      <c r="E11" s="59">
+        <v>-151.22293999999999</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="49" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A12" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="60">
+        <v>60.54081</v>
+      </c>
+      <c r="E12" s="59">
+        <v>-151.18278000000001</v>
+      </c>
+      <c r="F12" s="52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="49" customFormat="1" ht="15.6">
+      <c r="A13" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="60">
+        <v>60.539279000000001</v>
+      </c>
+      <c r="E13" s="59">
+        <v>-151.14226300000001</v>
+      </c>
+      <c r="F13" s="52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="49" customFormat="1" ht="15.6">
+      <c r="A14" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="60">
+        <v>60.533743000000001</v>
+      </c>
+      <c r="E14" s="59">
+        <v>-151.09925799999999</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="49" customFormat="1" ht="15.6">
+      <c r="A15" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="60">
+        <v>60.502004999999997</v>
+      </c>
+      <c r="E15" s="59">
+        <v>-151.10697300000001</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.6" customHeight="1">
+      <c r="A16" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="60">
+        <v>60.476633999999997</v>
+      </c>
+      <c r="E16" s="59">
+        <v>-151.082099</v>
+      </c>
+      <c r="F16" s="52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="49" customFormat="1" ht="15.6">
+      <c r="A17" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="63">
+        <v>60.482751999999998</v>
+      </c>
+      <c r="E17" s="63">
+        <v>-151.12511599999999</v>
+      </c>
+      <c r="F17" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="48"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.6">
+      <c r="A18" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="60">
+        <v>60.480338000000003</v>
+      </c>
+      <c r="E18" s="59">
+        <v>-151.03084699999999</v>
+      </c>
+      <c r="F18" s="52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="49" customFormat="1" ht="16.95" customHeight="1">
+      <c r="A19" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="66">
+        <v>60.481392</v>
+      </c>
+      <c r="E19" s="66">
+        <v>-150.11501999999999</v>
+      </c>
+      <c r="F19" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="48"/>
+    </row>
+    <row r="20" spans="1:7" s="49" customFormat="1" ht="18" customHeight="1">
+      <c r="A20" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="66">
+        <v>60.467517000000001</v>
+      </c>
+      <c r="E20" s="66">
+        <v>-150.507789</v>
+      </c>
+      <c r="F20" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="48"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.4" customHeight="1"/>
+    <row r="26" spans="1:7" ht="14.4" customHeight="1"/>
+    <row r="30" spans="1:7" ht="14.4" customHeight="1"/>
+    <row r="33" ht="14.4" customHeight="1"/>
+    <row r="36" ht="14.4" customHeight="1"/>
+    <row r="39" ht="14.4" customHeight="1"/>
+    <row r="45" ht="14.4" customHeight="1"/>
+    <row r="48" ht="14.4" customHeight="1"/>
+    <row r="52" ht="14.4" customHeight="1"/>
+    <row r="55" ht="14.4" customHeight="1"/>
+    <row r="58" ht="14.4" customHeight="1"/>
+    <row r="62" ht="14.4" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17" style="57" customWidth="1"/>
-    <col min="2" max="3" width="23.83203125" style="45" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="45" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" style="45" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" style="57" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="45"/>
+    <col min="1" max="1" width="6.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="48" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="47" t="s">
+    <row r="1" spans="1:2" ht="15" thickBot="1">
+      <c r="A1" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="70">
+        <v>1</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="71">
         <v>2</v>
       </c>
-      <c r="C1" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="46" t="s">
+      <c r="B3" s="71" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="71">
+        <v>3</v>
+      </c>
+      <c r="B4" s="71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="71">
+        <v>4</v>
+      </c>
+      <c r="B5" s="71" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="71">
         <v>5</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="B6" s="71" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="71">
         <v>6</v>
       </c>
-      <c r="F1" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="54" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="51" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="B7" s="71" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="71">
+        <v>7</v>
+      </c>
+      <c r="B8" s="71" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="71">
+        <v>8</v>
+      </c>
+      <c r="B9" s="71" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="71">
+        <v>9</v>
+      </c>
+      <c r="B10" s="71" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="71">
+        <v>10</v>
+      </c>
+      <c r="B11" s="71" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="71">
         <v>11</v>
       </c>
-      <c r="B2" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="49">
-        <v>60.481350999999997</v>
-      </c>
-      <c r="E2" s="49">
-        <v>-150.11548400000001</v>
-      </c>
-      <c r="F2" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-    </row>
-    <row r="3" spans="1:9" s="51" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="49">
-        <v>60.468252999999997</v>
-      </c>
-      <c r="E3" s="49">
-        <v>-150.50908200000001</v>
-      </c>
-      <c r="F3" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="50"/>
-      <c r="H3"/>
-    </row>
-    <row r="4" spans="1:9" s="51" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="52">
-        <v>60.482751999999998</v>
-      </c>
-      <c r="E4" s="52">
-        <v>-151.12511599999999</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="50"/>
-      <c r="H4"/>
-    </row>
-    <row r="5" spans="1:9" s="51" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="53">
-        <v>60.550828000000003</v>
-      </c>
-      <c r="E5" s="53">
-        <v>-150.958325</v>
-      </c>
-      <c r="F5" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="50"/>
-      <c r="H5" s="44"/>
-      <c r="I5"/>
-    </row>
-    <row r="6" spans="1:9" s="51" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="52">
-        <v>60.402664000000001</v>
-      </c>
-      <c r="E6" s="52">
-        <v>-151.14738500000001</v>
-      </c>
-      <c r="F6" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="50"/>
-      <c r="I6"/>
-    </row>
-    <row r="7" spans="1:9" s="51" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="53">
-        <v>60.641201000000002</v>
-      </c>
-      <c r="E7" s="53">
-        <v>-151.08471800000001</v>
-      </c>
-      <c r="F7" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="50"/>
-      <c r="I7" s="44"/>
-    </row>
-    <row r="8" spans="1:9" s="51" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="52">
-        <v>60.577846000000001</v>
-      </c>
-      <c r="E8" s="52">
-        <v>-151.26858799999999</v>
-      </c>
-      <c r="F8" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="50"/>
-      <c r="I8" s="58"/>
-    </row>
-    <row r="9" spans="1:9" s="51" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="62">
-        <v>60.49006</v>
-      </c>
-      <c r="E9" s="51">
-        <v>-150.860657</v>
-      </c>
-      <c r="F9" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="58"/>
-    </row>
-    <row r="10" spans="1:9" s="51" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="60">
+      <c r="B12" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="51">
-        <v>60.544798912405099</v>
-      </c>
-      <c r="E10" s="51">
-        <v>-151.22272816931201</v>
-      </c>
-      <c r="F10" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="58"/>
-    </row>
-    <row r="11" spans="1:9" s="51" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="63" t="s">
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="71">
+        <v>12</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="71">
+        <v>13</v>
+      </c>
+      <c r="B14" s="71" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="71">
+        <v>14</v>
+      </c>
+      <c r="B15" s="71" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="71">
+        <v>15</v>
+      </c>
+      <c r="B16" s="71" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="71">
+        <v>16</v>
+      </c>
+      <c r="B17" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="60">
-        <v>6.5</v>
-      </c>
-      <c r="D11" s="62">
-        <v>60.540756999999999</v>
-      </c>
-      <c r="E11" s="51">
-        <v>-151.183401</v>
-      </c>
-      <c r="F11" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" s="58"/>
-    </row>
-    <row r="12" spans="1:9" s="51" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="60">
-        <v>10.1</v>
-      </c>
-      <c r="D12" s="62">
-        <v>60.538524000000002</v>
-      </c>
-      <c r="E12" s="51">
-        <v>-151.14434800000001</v>
-      </c>
-      <c r="F12" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="I12" s="58"/>
-    </row>
-    <row r="13" spans="1:9" s="51" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="60">
-        <v>12.5</v>
-      </c>
-      <c r="D13" s="62">
-        <v>60.533862999999997</v>
-      </c>
-      <c r="E13" s="51">
-        <v>-151.098646</v>
-      </c>
-      <c r="F13" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="I13" s="58"/>
-    </row>
-    <row r="14" spans="1:9" s="51" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="60">
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="71">
+        <v>17</v>
+      </c>
+      <c r="B18" s="71" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="71">
         <v>18</v>
       </c>
-      <c r="D14" s="62">
-        <v>60.502256000000003</v>
-      </c>
-      <c r="E14" s="51">
-        <v>-151.10640100000001</v>
-      </c>
-      <c r="F14" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" s="58"/>
-    </row>
-    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="60">
-        <v>21</v>
-      </c>
-      <c r="D15" s="62">
-        <v>60.476742000000002</v>
-      </c>
-      <c r="E15" s="51">
-        <v>-151.08233000000001</v>
-      </c>
-      <c r="F15" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="I15" s="58"/>
-    </row>
-    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="60">
-        <v>23</v>
-      </c>
-      <c r="D16" s="62">
-        <v>60.482047999999999</v>
-      </c>
-      <c r="E16" s="51">
-        <v>-151.04160200000001</v>
-      </c>
-      <c r="F16" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="I16" s="58"/>
-    </row>
-    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="56"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="58"/>
-    </row>
-    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="56"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
+      <c r="B19" s="71" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="71">
+        <v>19</v>
+      </c>
+      <c r="B20" s="67" t="s">
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Sampling sites 2020.xlsx
+++ b/data/Sampling sites 2020.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="BM_format_Sites2020" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -66,8 +67,43 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Benjamin Meyer</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Benjamin Meyer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+alternative name format
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="115">
   <si>
     <t>Access</t>
   </si>
@@ -388,6 +424,30 @@
   </si>
   <si>
     <t>Slikok Confluence</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>19*</t>
+  </si>
+  <si>
+    <t>15*</t>
+  </si>
+  <si>
+    <t>16*</t>
+  </si>
+  <si>
+    <t>17*</t>
+  </si>
+  <si>
+    <t>18*</t>
+  </si>
+  <si>
+    <t>12*</t>
   </si>
 </sst>
 </file>
@@ -491,7 +551,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -796,6 +856,131 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -804,7 +989,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -934,43 +1119,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1004,6 +1161,100 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1348,14 +1599,14 @@
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="53" t="s">
+      <c r="F1" s="89"/>
+      <c r="G1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="54"/>
+      <c r="H1" s="89"/>
       <c r="I1" s="3"/>
       <c r="J1" s="11"/>
       <c r="K1" s="4"/>
@@ -1402,7 +1653,7 @@
       <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" ht="15" thickTop="1">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="90" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="42" t="s">
@@ -1430,7 +1681,7 @@
       <c r="P3" s="4"/>
     </row>
     <row r="4" spans="1:16" ht="28.8">
-      <c r="A4" s="56"/>
+      <c r="A4" s="91"/>
       <c r="B4" s="43" t="s">
         <v>15</v>
       </c>
@@ -1458,7 +1709,7 @@
       <c r="P4" s="4"/>
     </row>
     <row r="5" spans="1:16" ht="43.8" thickBot="1">
-      <c r="A5" s="56"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="41" t="s">
         <v>18</v>
       </c>
@@ -1492,7 +1743,7 @@
       <c r="P5" s="4"/>
     </row>
     <row r="6" spans="1:16" ht="43.8" thickTop="1">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="90" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="38" t="s">
@@ -1528,7 +1779,7 @@
       <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:16" ht="72">
-      <c r="A7" s="56"/>
+      <c r="A7" s="91"/>
       <c r="B7" s="39" t="s">
         <v>30</v>
       </c>
@@ -1564,7 +1815,7 @@
       <c r="P7" s="4"/>
     </row>
     <row r="8" spans="1:16" ht="28.8">
-      <c r="A8" s="56"/>
+      <c r="A8" s="91"/>
       <c r="B8" s="40" t="s">
         <v>35</v>
       </c>
@@ -1572,10 +1823,10 @@
         <v>49</v>
       </c>
       <c r="D8" s="36"/>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="57"/>
+      <c r="F8" s="92"/>
       <c r="G8" s="35" t="s">
         <v>37</v>
       </c>
@@ -1598,7 +1849,7 @@
       <c r="P8" s="4"/>
     </row>
     <row r="9" spans="1:16" ht="29.4" thickBot="1">
-      <c r="A9" s="58"/>
+      <c r="A9" s="93"/>
       <c r="B9" s="41" t="s">
         <v>40</v>
       </c>
@@ -1672,430 +1923,430 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" sqref="A1:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17" style="52" customWidth="1"/>
+    <col min="1" max="1" width="17" style="48" customWidth="1"/>
     <col min="2" max="3" width="23.77734375" style="44" customWidth="1"/>
     <col min="4" max="4" width="15.109375" style="44" customWidth="1"/>
     <col min="5" max="5" width="16.21875" style="44" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" style="52" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" style="48" customWidth="1"/>
     <col min="7" max="16384" width="10.77734375" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="47" customFormat="1" ht="18">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:7" s="65" customFormat="1" ht="18">
+      <c r="A1" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="62" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="59">
+      <c r="D2" s="49">
         <v>60.550888</v>
       </c>
-      <c r="E2" s="59">
+      <c r="E2" s="49">
         <v>-151.268417</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="48" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="63">
+      <c r="D3" s="53">
         <v>60.577846000000001</v>
       </c>
-      <c r="E3" s="63">
+      <c r="E3" s="53">
         <v>-151.26858799999999</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="48" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="49" customFormat="1" ht="15.6">
-      <c r="A4" s="59" t="s">
+    <row r="4" spans="1:7" s="46" customFormat="1" ht="15.6">
+      <c r="A4" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="63">
+      <c r="D4" s="53">
         <v>60.483364000000002</v>
       </c>
-      <c r="E4" s="63">
+      <c r="E4" s="53">
         <v>-151.05765600000001</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="G4" s="48"/>
-    </row>
-    <row r="5" spans="1:7" s="49" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A5" s="59" t="s">
+      <c r="G4" s="45"/>
+    </row>
+    <row r="5" spans="1:7" s="46" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A5" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="64">
+      <c r="D5" s="54">
         <v>60.550828000000003</v>
       </c>
-      <c r="E5" s="64">
+      <c r="E5" s="54">
         <v>-150.958325</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="48"/>
-    </row>
-    <row r="6" spans="1:7" s="49" customFormat="1" ht="15.6">
-      <c r="A6" s="59" t="s">
+      <c r="G5" s="45"/>
+    </row>
+    <row r="6" spans="1:7" s="46" customFormat="1" ht="15.6">
+      <c r="A6" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="60">
+      <c r="D6" s="50">
         <v>60.548029</v>
       </c>
-      <c r="E6" s="63">
+      <c r="E6" s="53">
         <v>-151.14323999999999</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="48"/>
-    </row>
-    <row r="7" spans="1:7" s="49" customFormat="1" ht="15.6">
-      <c r="A7" s="59" t="s">
+      <c r="G6" s="45"/>
+    </row>
+    <row r="7" spans="1:7" s="46" customFormat="1" ht="15.6">
+      <c r="A7" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="64">
+      <c r="D7" s="54">
         <v>60.641201000000002</v>
       </c>
-      <c r="E7" s="64">
+      <c r="E7" s="54">
         <v>-151.08471800000001</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="48"/>
-    </row>
-    <row r="8" spans="1:7" s="49" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A8" s="59" t="s">
+      <c r="G7" s="45"/>
+    </row>
+    <row r="8" spans="1:7" s="46" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A8" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="64">
+      <c r="D8" s="54">
         <v>60.482317999999999</v>
       </c>
-      <c r="E8" s="64">
+      <c r="E8" s="54">
         <v>-151.12705299999999</v>
       </c>
-      <c r="F8" s="52" t="s">
+      <c r="F8" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="G8" s="48"/>
-    </row>
-    <row r="9" spans="1:7" s="49" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A9" s="51" t="s">
+      <c r="G8" s="45"/>
+    </row>
+    <row r="9" spans="1:7" s="46" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A9" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="63">
+      <c r="D9" s="53">
         <v>60.402664000000001</v>
       </c>
-      <c r="E9" s="63">
+      <c r="E9" s="53">
         <v>-151.14738500000001</v>
       </c>
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="48"/>
-    </row>
-    <row r="10" spans="1:7" s="49" customFormat="1" ht="15.6">
-      <c r="A10" s="65" t="s">
+      <c r="G9" s="45"/>
+    </row>
+    <row r="10" spans="1:7" s="46" customFormat="1" ht="15.6">
+      <c r="A10" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="60">
+      <c r="D10" s="50">
         <v>60.489963000000003</v>
       </c>
-      <c r="E10" s="59">
+      <c r="E10" s="49">
         <v>-150.86098200000001</v>
       </c>
-      <c r="F10" s="52" t="s">
+      <c r="F10" s="48" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="49" customFormat="1" ht="15.6">
-      <c r="A11" s="51" t="s">
+    <row r="11" spans="1:7" s="46" customFormat="1" ht="15.6">
+      <c r="A11" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="59">
+      <c r="D11" s="49">
         <v>60.543680000000002</v>
       </c>
-      <c r="E11" s="59">
+      <c r="E11" s="49">
         <v>-151.22293999999999</v>
       </c>
-      <c r="F11" s="52" t="s">
+      <c r="F11" s="48" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="49" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A12" s="51" t="s">
+    <row r="12" spans="1:7" s="46" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A12" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="60">
+      <c r="D12" s="50">
         <v>60.54081</v>
       </c>
-      <c r="E12" s="59">
+      <c r="E12" s="49">
         <v>-151.18278000000001</v>
       </c>
-      <c r="F12" s="52" t="s">
+      <c r="F12" s="48" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="49" customFormat="1" ht="15.6">
-      <c r="A13" s="51" t="s">
+    <row r="13" spans="1:7" s="46" customFormat="1" ht="15.6">
+      <c r="A13" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="60">
+      <c r="D13" s="50">
         <v>60.539279000000001</v>
       </c>
-      <c r="E13" s="59">
+      <c r="E13" s="49">
         <v>-151.14226300000001</v>
       </c>
-      <c r="F13" s="52" t="s">
+      <c r="F13" s="48" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="49" customFormat="1" ht="15.6">
-      <c r="A14" s="51" t="s">
+    <row r="14" spans="1:7" s="46" customFormat="1" ht="15.6">
+      <c r="A14" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="60">
+      <c r="D14" s="50">
         <v>60.533743000000001</v>
       </c>
-      <c r="E14" s="59">
+      <c r="E14" s="49">
         <v>-151.09925799999999</v>
       </c>
-      <c r="F14" s="52" t="s">
+      <c r="F14" s="48" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="49" customFormat="1" ht="15.6">
-      <c r="A15" s="51" t="s">
+    <row r="15" spans="1:7" s="46" customFormat="1" ht="15.6">
+      <c r="A15" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="60">
+      <c r="D15" s="50">
         <v>60.502004999999997</v>
       </c>
-      <c r="E15" s="59">
+      <c r="E15" s="49">
         <v>-151.10697300000001</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="F15" s="48" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="60">
+      <c r="D16" s="50">
         <v>60.476633999999997</v>
       </c>
-      <c r="E16" s="59">
+      <c r="E16" s="49">
         <v>-151.082099</v>
       </c>
-      <c r="F16" s="52" t="s">
+      <c r="F16" s="48" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="49" customFormat="1" ht="15.6">
-      <c r="A17" s="51" t="s">
+    <row r="17" spans="1:7" s="46" customFormat="1" ht="15.6">
+      <c r="A17" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="63">
+      <c r="D17" s="53">
         <v>60.482751999999998</v>
       </c>
-      <c r="E17" s="63">
+      <c r="E17" s="53">
         <v>-151.12511599999999</v>
       </c>
-      <c r="F17" s="52" t="s">
+      <c r="F17" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="48"/>
+      <c r="G17" s="45"/>
     </row>
     <row r="18" spans="1:7" ht="15.6">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="60">
+      <c r="D18" s="50">
         <v>60.480338000000003</v>
       </c>
-      <c r="E18" s="59">
+      <c r="E18" s="49">
         <v>-151.03084699999999</v>
       </c>
-      <c r="F18" s="52" t="s">
+      <c r="F18" s="48" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="49" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A19" s="51" t="s">
+    <row r="19" spans="1:7" s="46" customFormat="1" ht="16.95" customHeight="1">
+      <c r="A19" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="66">
+      <c r="D19" s="56">
         <v>60.481392</v>
       </c>
-      <c r="E19" s="66">
+      <c r="E19" s="56">
         <v>-150.11501999999999</v>
       </c>
-      <c r="F19" s="52" t="s">
+      <c r="F19" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="G19" s="48"/>
-    </row>
-    <row r="20" spans="1:7" s="49" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="51" t="s">
+      <c r="G19" s="45"/>
+    </row>
+    <row r="20" spans="1:7" s="46" customFormat="1" ht="18" customHeight="1">
+      <c r="A20" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="66">
+      <c r="D20" s="56">
         <v>60.467517000000001</v>
       </c>
-      <c r="E20" s="66">
+      <c r="E20" s="56">
         <v>-150.507789</v>
       </c>
-      <c r="F20" s="52" t="s">
+      <c r="F20" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="G20" s="48"/>
+      <c r="G20" s="45"/>
     </row>
     <row r="23" spans="1:7" ht="14.4" customHeight="1"/>
     <row r="26" spans="1:7" ht="14.4" customHeight="1"/>
@@ -2121,7 +2372,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B20"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2131,166 +2382,471 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="59" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="70">
+      <c r="A2" s="60">
         <v>1</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="60" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="71">
+      <c r="A3" s="61">
         <v>2</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="61" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="71">
+      <c r="A4" s="61">
         <v>3</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="61" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="71">
+      <c r="A5" s="61">
         <v>4</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="61" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="71">
+      <c r="A6" s="61">
         <v>5</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="61" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="71">
+      <c r="A7" s="61">
         <v>6</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="61" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="71">
+      <c r="A8" s="61">
         <v>7</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="61" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="71">
+      <c r="A9" s="61">
         <v>8</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="61" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="71">
+      <c r="A10" s="61">
         <v>9</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="61" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="71">
+      <c r="A11" s="61">
         <v>10</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="61" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="71">
+      <c r="A12" s="61">
         <v>11</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="61" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="71">
-        <v>12</v>
-      </c>
-      <c r="B13" s="71" t="s">
+      <c r="A13" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="61" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="71">
+      <c r="A14" s="61">
         <v>13</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="61" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="71">
+      <c r="A15" s="61">
         <v>14</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="61" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="71">
-        <v>15</v>
-      </c>
-      <c r="B16" s="71" t="s">
+      <c r="A16" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="61" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="71">
-        <v>16</v>
-      </c>
-      <c r="B17" s="71" t="s">
+      <c r="A17" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="61" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="71">
-        <v>17</v>
-      </c>
-      <c r="B18" s="71" t="s">
+      <c r="A18" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="61" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="71">
-        <v>18</v>
-      </c>
-      <c r="B19" s="71" t="s">
+      <c r="A19" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="61" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="71">
-        <v>19</v>
-      </c>
-      <c r="B20" s="67" t="s">
+      <c r="A20" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="57" t="s">
         <v>88</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="34.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:6" ht="15" thickBot="1"/>
+    <row r="3" spans="3:6" ht="18.600000000000001" thickBot="1">
+      <c r="C3" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="87" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6">
+      <c r="C4" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="83">
+        <v>60.550888</v>
+      </c>
+      <c r="F4" s="84">
+        <v>-151.268417</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="C5" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="69">
+        <v>60.577846000000001</v>
+      </c>
+      <c r="F5" s="70">
+        <v>-151.26858799999999</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="69">
+        <v>60.483364000000002</v>
+      </c>
+      <c r="F6" s="70">
+        <v>-151.05765600000001</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="C7" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="71">
+        <v>60.550828000000003</v>
+      </c>
+      <c r="F7" s="72">
+        <v>-150.958325</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="C8" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="73">
+        <v>60.548029</v>
+      </c>
+      <c r="F8" s="70">
+        <v>-151.14323999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="C9" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="71">
+        <v>60.641201000000002</v>
+      </c>
+      <c r="F9" s="72">
+        <v>-151.08471800000001</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="C10" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="71">
+        <v>60.482317999999999</v>
+      </c>
+      <c r="F10" s="72">
+        <v>-151.12705299999999</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" ht="15.6">
+      <c r="C11" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="69">
+        <v>60.402664000000001</v>
+      </c>
+      <c r="F11" s="70">
+        <v>-151.14738500000001</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="15.6">
+      <c r="C12" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="73">
+        <v>60.489963000000003</v>
+      </c>
+      <c r="F12" s="68">
+        <v>-150.86098200000001</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" ht="15.6">
+      <c r="C13" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="67">
+        <v>60.543680000000002</v>
+      </c>
+      <c r="F13" s="68">
+        <v>-151.22293999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" ht="15.6">
+      <c r="C14" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="73">
+        <v>60.54081</v>
+      </c>
+      <c r="F14" s="68">
+        <v>-151.18278000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" ht="15.6">
+      <c r="C15" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="73">
+        <v>60.539279000000001</v>
+      </c>
+      <c r="F15" s="68">
+        <v>-151.14226300000001</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" ht="15.6">
+      <c r="C16" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="73">
+        <v>60.533743000000001</v>
+      </c>
+      <c r="F16" s="68">
+        <v>-151.09925799999999</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="15.6">
+      <c r="C17" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="73">
+        <v>60.502004999999997</v>
+      </c>
+      <c r="F17" s="68">
+        <v>-151.10697300000001</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="15.6">
+      <c r="C18" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="73">
+        <v>60.476633999999997</v>
+      </c>
+      <c r="F18" s="68">
+        <v>-151.082099</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" ht="15.6">
+      <c r="C19" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="69">
+        <v>60.482751999999998</v>
+      </c>
+      <c r="F19" s="70">
+        <v>-151.12511599999999</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" ht="15.6">
+      <c r="C20" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="73">
+        <v>60.480338000000003</v>
+      </c>
+      <c r="F20" s="68">
+        <v>-151.03084699999999</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" ht="15.6">
+      <c r="C21" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="76">
+        <v>60.481392</v>
+      </c>
+      <c r="F21" s="77">
+        <v>-150.11501999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" ht="16.2" thickBot="1">
+      <c r="C22" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="80">
+        <v>60.467517000000001</v>
+      </c>
+      <c r="F22" s="81">
+        <v>-150.507789</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>